--- a/data/3.meta_data/matrices/0048a.xlsx
+++ b/data/3.meta_data/matrices/0048a.xlsx
@@ -4162,7 +4162,7 @@
         <v>0.0868020596526029</v>
       </c>
       <c r="AG30">
-        <v>-4.490903479259132e-05</v>
+        <v>-4.490903479259132E-05</v>
       </c>
       <c r="AH30">
         <v>-0.1521764798513533</v>
@@ -4650,7 +4650,7 @@
         <v>-0.04191503455684843</v>
       </c>
       <c r="AC34">
-        <v>-4.490903479259132e-05</v>
+        <v>-4.490903479259132E-05</v>
       </c>
       <c r="AD34">
         <v>0.198286407691952</v>
